--- a/output/portfolio_risk_report.xlsx
+++ b/output/portfolio_risk_report.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/korneliakozaczewska/Desktop/chmurka/git/student-fund/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26017414-D563-E040-BFC1-1A63228C2578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="780" windowWidth="28360" windowHeight="18640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Weights" sheetId="2" r:id="rId2"/>
-    <sheet name="Holdings" sheetId="3" r:id="rId3"/>
-    <sheet name="Prices_Tail" sheetId="4" r:id="rId4"/>
-    <sheet name="Config" sheetId="5" r:id="rId5"/>
+    <sheet name="Risk_Contribution" sheetId="3" r:id="rId3"/>
+    <sheet name="Sector_Exposure" sheetId="4" r:id="rId4"/>
+    <sheet name="Holdings" sheetId="5" r:id="rId5"/>
+    <sheet name="Prices_Tail" sheetId="6" r:id="rId6"/>
+    <sheet name="Config" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
   <si>
     <t>Wartość</t>
   </si>
@@ -47,6 +55,18 @@
     <t>Max Drawdown</t>
   </si>
   <si>
+    <t>Sharpe</t>
+  </si>
+  <si>
+    <t>Tracking Error</t>
+  </si>
+  <si>
+    <t>Information Ratio</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
     <t>Gotówka (z arkusza transakcji)</t>
   </si>
   <si>
@@ -65,28 +85,79 @@
     <t>Ticker</t>
   </si>
   <si>
+    <t>4MS.WA</t>
+  </si>
+  <si>
     <t>AMB.WA</t>
   </si>
   <si>
+    <t>ANR.WA</t>
+  </si>
+  <si>
+    <t>APR.WA</t>
+  </si>
+  <si>
     <t>BFT.WA</t>
   </si>
   <si>
+    <t>DOM.WA</t>
+  </si>
+  <si>
+    <t>NEU.WA</t>
+  </si>
+  <si>
     <t>VRC.WA</t>
   </si>
   <si>
-    <t>NEU.WA</t>
-  </si>
-  <si>
-    <t>DOM.WA</t>
-  </si>
-  <si>
-    <t>ANR.WA</t>
-  </si>
-  <si>
-    <t>4MS.WA</t>
-  </si>
-  <si>
-    <t>APR.WA</t>
+    <t>Now RC (%)</t>
+  </si>
+  <si>
+    <t>RP RC (%)</t>
+  </si>
+  <si>
+    <t>BL RC (%)</t>
+  </si>
+  <si>
+    <t>BL_Box RC (%)</t>
+  </si>
+  <si>
+    <t>Limit (%)</t>
+  </si>
+  <si>
+    <t>Now (%) Status</t>
+  </si>
+  <si>
+    <t>RP (%) Status</t>
+  </si>
+  <si>
+    <t>BL (%) Status</t>
+  </si>
+  <si>
+    <t>BL_Box (%) Status</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Consumer Cyclicals</t>
+  </si>
+  <si>
+    <t>Consumer Non-Cyclicals</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>BREACH</t>
   </si>
   <si>
     <t>Liczba akcji</t>
@@ -143,23 +214,29 @@
     <t>liczba_tickerów</t>
   </si>
   <si>
-    <t>/Users/korneliakozaczewska/Desktop/chmurka/git/fundusz-hossa-procapital/config.yaml</t>
-  </si>
-  <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
-    <t>2025-11-08</t>
+    <t>sector_constraints_enabled</t>
+  </si>
+  <si>
+    <t>max_weight_per_sector</t>
+  </si>
+  <si>
+    <t>/Users/korneliakozaczewska/Desktop/chmurka/git/student-fund/config.yaml</t>
+  </si>
+  <si>
+    <t>2023-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,17 +298,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -269,7 +354,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -303,6 +388,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -337,9 +423,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,91 +599,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>63257.58913845062</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>73690.92021770477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.009623969785957349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>9.445062300743115E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.152775784073056</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.14993571579166701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1557.225456306438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>1798.213576552122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1808.143071188657</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>2131.894619156903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6964.123953188649</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>8041.8555904671348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>8086.261640446159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>9534.1225786017221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.1153004051382722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.10754823734108861</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>2.6632125610375181E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>10000</v>
       </c>
     </row>
@@ -606,169 +716,169 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>12.4239</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>19.1649</v>
+        <v>11.2119</v>
       </c>
       <c r="D2">
-        <v>34.4414</v>
+        <v>4.7308000000000003</v>
       </c>
       <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B3">
-        <v>16.5922</v>
+        <v>11.869</v>
       </c>
       <c r="C3">
-        <v>9.797499999999999</v>
+        <v>13.7881</v>
       </c>
       <c r="D3">
-        <v>10.9577</v>
+        <v>32.971200000000003</v>
       </c>
       <c r="E3">
-        <v>14.6587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>16.3557</v>
+        <v>16.2197</v>
       </c>
       <c r="C4">
-        <v>10.4152</v>
+        <v>11.545299999999999</v>
       </c>
       <c r="D4">
-        <v>5.2763</v>
+        <v>16.621099999999998</v>
       </c>
       <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>11.504200000000001</v>
+      </c>
+      <c r="D5">
+        <v>11.4392</v>
+      </c>
+      <c r="E5">
+        <v>14.6861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>17.852499999999999</v>
+      </c>
+      <c r="C6">
+        <v>11.411899999999999</v>
+      </c>
+      <c r="D6">
+        <v>12.014099999999999</v>
+      </c>
+      <c r="E6">
+        <v>16.497199999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>20.619299999999999</v>
+      </c>
+      <c r="C7">
+        <v>13.495799999999999</v>
+      </c>
+      <c r="D7">
+        <v>6.0167000000000002</v>
+      </c>
+      <c r="E7">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>15.4103</v>
-      </c>
-      <c r="C5">
-        <v>13.8733</v>
-      </c>
-      <c r="D5">
-        <v>10.5385</v>
-      </c>
-      <c r="E5">
-        <v>13.3484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>20.6008</v>
-      </c>
-      <c r="C6">
-        <v>13.0413</v>
-      </c>
-      <c r="D6">
-        <v>5.9751</v>
-      </c>
-      <c r="E6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>15.763999999999999</v>
+      </c>
+      <c r="C8">
+        <v>15.8413</v>
+      </c>
+      <c r="D8">
+        <v>11.1633</v>
+      </c>
+      <c r="E8">
+        <v>13.816700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>17.6754</v>
+      </c>
+      <c r="C9">
+        <v>11.2014</v>
+      </c>
+      <c r="D9">
+        <v>5.0435999999999996</v>
+      </c>
+      <c r="E9">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>18.6172</v>
-      </c>
-      <c r="C7">
-        <v>10.0676</v>
-      </c>
-      <c r="D7">
-        <v>16.0541</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>12.3778</v>
-      </c>
-      <c r="D8">
-        <v>5.0524</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>11.2625</v>
-      </c>
-      <c r="D9">
-        <v>11.7045</v>
-      </c>
-      <c r="E9">
-        <v>16.9929</v>
       </c>
     </row>
   </sheetData>
@@ -777,87 +887,172 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>9.6921999999999997</v>
+      </c>
+      <c r="D2">
+        <v>1.8508</v>
+      </c>
+      <c r="E2">
+        <v>2.1751999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>4.9692999999999996</v>
+      </c>
+      <c r="C3">
+        <v>7.0804</v>
+      </c>
+      <c r="D3">
+        <v>32.2072</v>
+      </c>
+      <c r="E3">
+        <v>12.590299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>18.6706</v>
+      </c>
+      <c r="C4">
+        <v>14.4422</v>
+      </c>
+      <c r="D4">
+        <v>24.514299999999999</v>
+      </c>
+      <c r="E4">
+        <v>29.892299999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>12.8385</v>
+      </c>
+      <c r="D5">
+        <v>11.6953</v>
+      </c>
+      <c r="E5">
+        <v>16.792300000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>440.53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>3.43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>84.39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>12.17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B6">
-        <v>50.51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>21.426600000000001</v>
+      </c>
+      <c r="C6">
+        <v>14.2928</v>
+      </c>
+      <c r="D6">
+        <v>14.151999999999999</v>
+      </c>
+      <c r="E6">
+        <v>21.547599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>413.22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>20.185400000000001</v>
+      </c>
+      <c r="C7">
+        <v>12.873799999999999</v>
+      </c>
+      <c r="D7">
+        <v>3.4531000000000001</v>
+      </c>
+      <c r="E7">
+        <v>2.6013000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>11.687200000000001</v>
+      </c>
+      <c r="C8">
+        <v>14.651</v>
+      </c>
+      <c r="D8">
+        <v>7.8186999999999998</v>
+      </c>
+      <c r="E8">
+        <v>10.2239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>23.060700000000001</v>
+      </c>
+      <c r="C9">
+        <v>14.129099999999999</v>
+      </c>
+      <c r="D9">
+        <v>4.3086000000000002</v>
+      </c>
+      <c r="E9">
+        <v>4.1772</v>
       </c>
     </row>
   </sheetData>
@@ -866,340 +1061,212 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2">
-        <v>45957</v>
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B2">
-        <v>18.31894493103027</v>
+        <v>20.619299999999999</v>
       </c>
       <c r="C2">
-        <v>3160</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>124</v>
+        <v>17.4559</v>
       </c>
       <c r="E2">
-        <v>762</v>
+        <v>19.6861</v>
       </c>
       <c r="F2">
-        <v>244</v>
-      </c>
-      <c r="G2">
-        <v>28.75</v>
-      </c>
-      <c r="H2">
-        <v>4.53000020980835</v>
-      </c>
-      <c r="I2">
-        <v>17.76000022888184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2">
-        <v>45958</v>
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B3">
-        <v>18.56445693969727</v>
+        <v>11.869</v>
       </c>
       <c r="C3">
-        <v>3175</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>123.5999984741211</v>
+        <v>37.701999999999998</v>
       </c>
       <c r="E3">
-        <v>743</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>243.5</v>
-      </c>
-      <c r="G3">
-        <v>28.89999961853027</v>
-      </c>
-      <c r="H3">
-        <v>4.465000152587891</v>
-      </c>
-      <c r="I3">
-        <v>17.79999923706055</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2">
-        <v>45959</v>
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B4">
-        <v>18.63999938964844</v>
+        <v>33.895099999999999</v>
       </c>
       <c r="C4">
-        <v>3180</v>
+        <v>22.746700000000001</v>
       </c>
       <c r="D4">
-        <v>124</v>
+        <v>21.6648</v>
       </c>
       <c r="E4">
-        <v>734</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>248</v>
-      </c>
-      <c r="G4">
-        <v>28.75</v>
-      </c>
-      <c r="H4">
-        <v>4.389999866485596</v>
-      </c>
-      <c r="I4">
-        <v>18.15999984741211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2">
-        <v>45960</v>
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B5">
-        <v>18.63999938964844</v>
+        <v>15.763999999999999</v>
       </c>
       <c r="C5">
-        <v>3135</v>
+        <v>15.8413</v>
       </c>
       <c r="D5">
-        <v>123.4000015258789</v>
+        <v>11.1633</v>
       </c>
       <c r="E5">
-        <v>740</v>
+        <v>13.816700000000001</v>
       </c>
       <c r="F5">
-        <v>242</v>
-      </c>
-      <c r="G5">
-        <v>28.79999923706055</v>
-      </c>
-      <c r="H5">
-        <v>4.349999904632568</v>
-      </c>
-      <c r="I5">
-        <v>18.10000038146973</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2">
-        <v>45961</v>
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B6">
-        <v>19.02000045776367</v>
+        <v>17.852499999999999</v>
       </c>
       <c r="C6">
-        <v>3135</v>
+        <v>11.411899999999999</v>
       </c>
       <c r="D6">
-        <v>123</v>
+        <v>12.014099999999999</v>
       </c>
       <c r="E6">
-        <v>744</v>
+        <v>16.497199999999999</v>
       </c>
       <c r="F6">
-        <v>246</v>
-      </c>
-      <c r="G6">
-        <v>29.10000038146973</v>
-      </c>
-      <c r="H6">
-        <v>4.335000038146973</v>
-      </c>
-      <c r="I6">
-        <v>18.02000045776367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2">
-        <v>45964</v>
-      </c>
-      <c r="B7">
-        <v>18.84000015258789</v>
-      </c>
-      <c r="C7">
-        <v>3150</v>
-      </c>
-      <c r="D7">
-        <v>124</v>
-      </c>
-      <c r="E7">
-        <v>742</v>
-      </c>
-      <c r="F7">
-        <v>251.5</v>
-      </c>
-      <c r="G7">
-        <v>29.20000076293945</v>
-      </c>
-      <c r="H7">
-        <v>4.204999923706055</v>
-      </c>
-      <c r="I7">
-        <v>17.8799991607666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2">
-        <v>45965</v>
-      </c>
-      <c r="B8">
-        <v>18.70000076293945</v>
-      </c>
-      <c r="C8">
-        <v>3120</v>
-      </c>
-      <c r="D8">
-        <v>124</v>
-      </c>
-      <c r="E8">
-        <v>766</v>
-      </c>
-      <c r="F8">
-        <v>252</v>
-      </c>
-      <c r="G8">
-        <v>29.20000076293945</v>
-      </c>
-      <c r="H8">
-        <v>4.139999866485596</v>
-      </c>
-      <c r="I8">
-        <v>17.92000007629395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2">
-        <v>45966</v>
-      </c>
-      <c r="B9">
-        <v>18.6200008392334</v>
-      </c>
-      <c r="C9">
-        <v>3100</v>
-      </c>
-      <c r="D9">
-        <v>124</v>
-      </c>
-      <c r="E9">
-        <v>792</v>
-      </c>
-      <c r="F9">
-        <v>253</v>
-      </c>
-      <c r="G9">
-        <v>28.70000076293945</v>
-      </c>
-      <c r="H9">
-        <v>4.099999904632568</v>
-      </c>
-      <c r="I9">
-        <v>17.76000022888184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2">
-        <v>45967</v>
-      </c>
-      <c r="B10">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <v>3060</v>
-      </c>
-      <c r="D10">
-        <v>124.1999969482422</v>
-      </c>
-      <c r="E10">
-        <v>790</v>
-      </c>
-      <c r="F10">
-        <v>255</v>
-      </c>
-      <c r="G10">
-        <v>28.85000038146973</v>
-      </c>
-      <c r="H10">
-        <v>4.099999904632568</v>
-      </c>
-      <c r="I10">
-        <v>17.73999977111816</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2">
-        <v>45968</v>
-      </c>
-      <c r="B11">
-        <v>17.84000015258789</v>
-      </c>
-      <c r="C11">
-        <v>3060</v>
-      </c>
-      <c r="D11">
-        <v>122.5999984741211</v>
-      </c>
-      <c r="E11">
-        <v>801</v>
-      </c>
-      <c r="F11">
-        <v>258</v>
-      </c>
-      <c r="G11">
-        <v>28.5</v>
-      </c>
-      <c r="H11">
-        <v>4.099999904632568</v>
-      </c>
-      <c r="I11">
-        <v>17.71999931335449</v>
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1208,140 +1275,584 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="85.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>440.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>413.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>50.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B8">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>84.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>45992</v>
+      </c>
+      <c r="B2">
+        <v>4.0999999046325684</v>
+      </c>
+      <c r="C2">
+        <v>17.5</v>
+      </c>
+      <c r="D2">
+        <v>25.79999923706055</v>
+      </c>
+      <c r="E2">
+        <v>16.840000152587891</v>
+      </c>
+      <c r="F2">
+        <v>3550</v>
+      </c>
+      <c r="G2">
+        <v>260</v>
+      </c>
+      <c r="H2">
+        <v>839</v>
+      </c>
+      <c r="I2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>45993</v>
+      </c>
+      <c r="B3">
+        <v>4.1399998664855957</v>
+      </c>
+      <c r="C3">
+        <v>17.559999465942379</v>
+      </c>
+      <c r="D3">
+        <v>25.75</v>
+      </c>
+      <c r="E3">
+        <v>16.89999961853027</v>
+      </c>
+      <c r="F3">
+        <v>3550</v>
+      </c>
+      <c r="G3">
+        <v>258.5</v>
+      </c>
+      <c r="H3">
+        <v>840</v>
+      </c>
+      <c r="I3">
+        <v>123.59999847412109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>45994</v>
+      </c>
+      <c r="B4">
+        <v>4.119999885559082</v>
+      </c>
+      <c r="C4">
+        <v>17.54000091552734</v>
+      </c>
+      <c r="D4">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="E4">
+        <v>16.879999160766602</v>
+      </c>
+      <c r="F4">
+        <v>3540</v>
+      </c>
+      <c r="G4">
+        <v>265</v>
+      </c>
+      <c r="H4">
+        <v>835</v>
+      </c>
+      <c r="I4">
+        <v>123.8000030517578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>45995</v>
+      </c>
+      <c r="B5">
+        <v>4.1599998474121094</v>
+      </c>
+      <c r="C5">
+        <v>17.340000152587891</v>
+      </c>
+      <c r="D5">
+        <v>25.79999923706055</v>
+      </c>
+      <c r="E5">
+        <v>16.5</v>
+      </c>
+      <c r="F5">
+        <v>3400</v>
+      </c>
+      <c r="G5">
+        <v>266</v>
+      </c>
+      <c r="H5">
+        <v>823</v>
+      </c>
+      <c r="I5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>45996</v>
+      </c>
+      <c r="B6">
+        <v>4.0999999046325684</v>
+      </c>
+      <c r="C6">
+        <v>17.360000610351559</v>
+      </c>
+      <c r="D6">
+        <v>25.75</v>
+      </c>
+      <c r="E6">
+        <v>16.420000076293949</v>
+      </c>
+      <c r="F6">
+        <v>3380</v>
+      </c>
+      <c r="G6">
+        <v>266</v>
+      </c>
+      <c r="H6">
+        <v>818</v>
+      </c>
+      <c r="I6">
+        <v>121.59999847412109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>45999</v>
+      </c>
+      <c r="B7">
+        <v>4.1100001335144043</v>
+      </c>
+      <c r="C7">
+        <v>17.139999389648441</v>
+      </c>
+      <c r="D7">
+        <v>25.60000038146973</v>
+      </c>
+      <c r="E7">
+        <v>16.5</v>
+      </c>
+      <c r="F7">
+        <v>3380</v>
+      </c>
+      <c r="G7">
+        <v>266</v>
+      </c>
+      <c r="H7">
+        <v>815</v>
+      </c>
+      <c r="I7">
+        <v>125.59999847412109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>46000</v>
+      </c>
+      <c r="B8">
+        <v>4.1399998664855957</v>
+      </c>
+      <c r="C8">
+        <v>17.260000228881839</v>
+      </c>
+      <c r="D8">
+        <v>25.45000076293945</v>
+      </c>
+      <c r="E8">
+        <v>16.54000091552734</v>
+      </c>
+      <c r="F8">
+        <v>3380</v>
+      </c>
+      <c r="G8">
+        <v>263</v>
+      </c>
+      <c r="H8">
+        <v>803</v>
+      </c>
+      <c r="I8">
+        <v>128.80000305175781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>46001</v>
+      </c>
+      <c r="B9">
+        <v>4.195000171661377</v>
+      </c>
+      <c r="C9">
+        <v>17.20000076293945</v>
+      </c>
+      <c r="D9">
+        <v>25.75</v>
+      </c>
+      <c r="E9">
+        <v>16.5</v>
+      </c>
+      <c r="F9">
+        <v>3375</v>
+      </c>
+      <c r="G9">
+        <v>266</v>
+      </c>
+      <c r="H9">
+        <v>819</v>
+      </c>
+      <c r="I9">
+        <v>128.19999694824219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B10">
+        <v>4.1700000762939453</v>
+      </c>
+      <c r="C10">
+        <v>17.20000076293945</v>
+      </c>
+      <c r="D10">
+        <v>24.89999961853027</v>
+      </c>
+      <c r="E10">
+        <v>16.5</v>
+      </c>
+      <c r="F10">
+        <v>3375</v>
+      </c>
+      <c r="G10">
+        <v>262.5</v>
+      </c>
+      <c r="H10">
+        <v>825</v>
+      </c>
+      <c r="I10">
+        <v>129.80000305175781</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B11">
+        <v>4.1999998092651367</v>
+      </c>
+      <c r="C11">
+        <v>17.159999847412109</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>16.479999542236332</v>
+      </c>
+      <c r="F11">
+        <v>3315</v>
+      </c>
+      <c r="G11">
+        <v>260</v>
+      </c>
+      <c r="H11">
+        <v>825</v>
+      </c>
+      <c r="I11">
+        <v>133.3999938964844</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="73.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>0.99</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B15">
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B16">
         <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
